--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>380.102629662867</v>
+        <v>397.2012023333334</v>
       </c>
       <c r="N2">
-        <v>380.102629662867</v>
+        <v>1191.603607</v>
       </c>
       <c r="O2">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072776</v>
       </c>
       <c r="P2">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072777</v>
       </c>
       <c r="Q2">
-        <v>11373.43683356505</v>
+        <v>12428.67718177148</v>
       </c>
       <c r="R2">
-        <v>11373.43683356505</v>
+        <v>111858.0946359433</v>
       </c>
       <c r="S2">
-        <v>0.009107818344814471</v>
+        <v>0.007229969143225862</v>
       </c>
       <c r="T2">
-        <v>0.009107818344814471</v>
+        <v>0.007229969143225863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.558582912366992</v>
+        <v>0.5851176666666666</v>
       </c>
       <c r="N3">
-        <v>0.558582912366992</v>
+        <v>1.755353</v>
       </c>
       <c r="O3">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635831</v>
       </c>
       <c r="P3">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635832</v>
       </c>
       <c r="Q3">
-        <v>16.71392664594192</v>
+        <v>18.30870236452222</v>
       </c>
       <c r="R3">
-        <v>16.71392664594192</v>
+        <v>164.7783212807</v>
       </c>
       <c r="S3">
-        <v>1.33844685601579E-05</v>
+        <v>1.065047802047224E-05</v>
       </c>
       <c r="T3">
-        <v>1.33844685601579E-05</v>
+        <v>1.065047802047224E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>473.741274117548</v>
+        <v>476.1463826666666</v>
       </c>
       <c r="N4">
-        <v>473.741274117548</v>
+        <v>1428.439148</v>
       </c>
       <c r="O4">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835045</v>
       </c>
       <c r="P4">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835046</v>
       </c>
       <c r="Q4">
-        <v>14175.29381842877</v>
+        <v>14898.92187301569</v>
       </c>
       <c r="R4">
-        <v>14175.29381842877</v>
+        <v>134090.2968571412</v>
       </c>
       <c r="S4">
-        <v>0.0113515380594198</v>
+        <v>0.008666951746660698</v>
       </c>
       <c r="T4">
-        <v>0.0113515380594198</v>
+        <v>0.008666951746660701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>131.180930603797</v>
+        <v>231.9582716666667</v>
       </c>
       <c r="N5">
-        <v>131.180930603797</v>
+        <v>695.874815</v>
       </c>
       <c r="O5">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249476</v>
       </c>
       <c r="P5">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249477</v>
       </c>
       <c r="Q5">
-        <v>3925.197858572775</v>
+        <v>7258.121227355388</v>
       </c>
       <c r="R5">
-        <v>3925.197858572775</v>
+        <v>65323.0910461985</v>
       </c>
       <c r="S5">
-        <v>0.003143288135898461</v>
+        <v>0.004222170368101281</v>
       </c>
       <c r="T5">
-        <v>0.003143288135898461</v>
+        <v>0.004222170368101282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.29730487875514</v>
+        <v>7.591415666666667</v>
       </c>
       <c r="N6">
-        <v>6.29730487875514</v>
+        <v>22.774247</v>
       </c>
       <c r="O6">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406503</v>
       </c>
       <c r="P6">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406504</v>
       </c>
       <c r="Q6">
-        <v>188.428055138024</v>
+        <v>237.5402041065889</v>
       </c>
       <c r="R6">
-        <v>188.428055138024</v>
+        <v>2137.8618369593</v>
       </c>
       <c r="S6">
-        <v>0.000150892691661951</v>
+        <v>0.0001381811049437383</v>
       </c>
       <c r="T6">
-        <v>0.000150892691661951</v>
+        <v>0.0001381811049437384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>380.102629662867</v>
+        <v>397.2012023333334</v>
       </c>
       <c r="N7">
-        <v>380.102629662867</v>
+        <v>1191.603607</v>
       </c>
       <c r="O7">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072776</v>
       </c>
       <c r="P7">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072777</v>
       </c>
       <c r="Q7">
-        <v>63981.7322271772</v>
+        <v>67616.45397870739</v>
       </c>
       <c r="R7">
-        <v>63981.7322271772</v>
+        <v>608548.0858083664</v>
       </c>
       <c r="S7">
-        <v>0.0512364031241585</v>
+        <v>0.03933362084240145</v>
       </c>
       <c r="T7">
-        <v>0.0512364031241585</v>
+        <v>0.03933362084240145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.558582912366992</v>
+        <v>0.5851176666666666</v>
       </c>
       <c r="N8">
-        <v>0.558582912366992</v>
+        <v>1.755353</v>
       </c>
       <c r="O8">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635831</v>
       </c>
       <c r="P8">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635832</v>
       </c>
       <c r="Q8">
-        <v>94.02487522235917</v>
+        <v>99.60589632629899</v>
       </c>
       <c r="R8">
-        <v>94.02487522235917</v>
+        <v>896.4530669366909</v>
       </c>
       <c r="S8">
-        <v>7.52948731285708E-05</v>
+        <v>5.794241385388145E-05</v>
       </c>
       <c r="T8">
-        <v>7.52948731285708E-05</v>
+        <v>5.794241385388146E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>473.741274117548</v>
+        <v>476.1463826666666</v>
       </c>
       <c r="N9">
-        <v>473.741274117548</v>
+        <v>1428.439148</v>
       </c>
       <c r="O9">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835045</v>
       </c>
       <c r="P9">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835046</v>
       </c>
       <c r="Q9">
-        <v>79743.69283484027</v>
+        <v>81055.46957456127</v>
       </c>
       <c r="R9">
-        <v>79743.69283484027</v>
+        <v>729499.2261710515</v>
       </c>
       <c r="S9">
-        <v>0.06385853978113223</v>
+        <v>0.04715132071925238</v>
       </c>
       <c r="T9">
-        <v>0.06385853978113223</v>
+        <v>0.04715132071925238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>131.180930603797</v>
+        <v>231.9582716666667</v>
       </c>
       <c r="N10">
-        <v>131.180930603797</v>
+        <v>695.874815</v>
       </c>
       <c r="O10">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249476</v>
       </c>
       <c r="P10">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249477</v>
       </c>
       <c r="Q10">
-        <v>22081.36045427628</v>
+        <v>39486.77825996964</v>
       </c>
       <c r="R10">
-        <v>22081.36045427628</v>
+        <v>355381.0043397268</v>
       </c>
       <c r="S10">
-        <v>0.01768269545669764</v>
+        <v>0.02297011855804684</v>
       </c>
       <c r="T10">
-        <v>0.01768269545669764</v>
+        <v>0.02297011855804684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.29730487875514</v>
+        <v>7.591415666666667</v>
       </c>
       <c r="N11">
-        <v>6.29730487875514</v>
+        <v>22.774247</v>
       </c>
       <c r="O11">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406503</v>
       </c>
       <c r="P11">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406504</v>
       </c>
       <c r="Q11">
-        <v>1060.009700176955</v>
+        <v>1292.303762030501</v>
       </c>
       <c r="R11">
-        <v>1060.009700176955</v>
+        <v>11630.73385827451</v>
       </c>
       <c r="S11">
-        <v>0.0008488529838633444</v>
+        <v>0.0007517546868832185</v>
       </c>
       <c r="T11">
-        <v>0.0008488529838633444</v>
+        <v>0.0007517546868832185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>380.102629662867</v>
+        <v>397.2012023333334</v>
       </c>
       <c r="N12">
-        <v>380.102629662867</v>
+        <v>1191.603607</v>
       </c>
       <c r="O12">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072776</v>
       </c>
       <c r="P12">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072777</v>
       </c>
       <c r="Q12">
-        <v>224713.5483417134</v>
+        <v>239900.1966150925</v>
       </c>
       <c r="R12">
-        <v>224713.5483417134</v>
+        <v>2159101.769535833</v>
       </c>
       <c r="S12">
-        <v>0.1799500193182573</v>
+        <v>0.1395539520106612</v>
       </c>
       <c r="T12">
-        <v>0.1799500193182573</v>
+        <v>0.1395539520106612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.558582912366992</v>
+        <v>0.5851176666666666</v>
       </c>
       <c r="N13">
-        <v>0.558582912366992</v>
+        <v>1.755353</v>
       </c>
       <c r="O13">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635831</v>
       </c>
       <c r="P13">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635832</v>
       </c>
       <c r="Q13">
-        <v>330.2296234897569</v>
+        <v>353.3973272278727</v>
       </c>
       <c r="R13">
-        <v>330.2296234897569</v>
+        <v>3180.575945050855</v>
       </c>
       <c r="S13">
-        <v>0.0002644470151665156</v>
+        <v>0.0002055771289082462</v>
       </c>
       <c r="T13">
-        <v>0.0002644470151665156</v>
+        <v>0.0002055771289082462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>473.741274117548</v>
+        <v>476.1463826666666</v>
       </c>
       <c r="N14">
-        <v>473.741274117548</v>
+        <v>1428.439148</v>
       </c>
       <c r="O14">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835045</v>
       </c>
       <c r="P14">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835046</v>
       </c>
       <c r="Q14">
-        <v>280071.9447726526</v>
+        <v>287581.2312457151</v>
       </c>
       <c r="R14">
-        <v>280071.9447726526</v>
+        <v>2588231.081211436</v>
       </c>
       <c r="S14">
-        <v>0.2242808777853526</v>
+        <v>0.1672908063882201</v>
       </c>
       <c r="T14">
-        <v>0.2242808777853526</v>
+        <v>0.1672908063882201</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.180930603797</v>
+        <v>231.9582716666667</v>
       </c>
       <c r="N15">
-        <v>131.180930603797</v>
+        <v>695.874815</v>
       </c>
       <c r="O15">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249476</v>
       </c>
       <c r="P15">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249477</v>
       </c>
       <c r="Q15">
-        <v>77553.08721987267</v>
+        <v>140097.3477734623</v>
       </c>
       <c r="R15">
-        <v>77553.08721987267</v>
+        <v>1260876.129961161</v>
       </c>
       <c r="S15">
-        <v>0.06210430855813245</v>
+        <v>0.08149696758843204</v>
       </c>
       <c r="T15">
-        <v>0.06210430855813245</v>
+        <v>0.08149696758843206</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.29730487875514</v>
+        <v>7.591415666666667</v>
       </c>
       <c r="N16">
-        <v>6.29730487875514</v>
+        <v>22.774247</v>
       </c>
       <c r="O16">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406503</v>
       </c>
       <c r="P16">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406504</v>
       </c>
       <c r="Q16">
-        <v>3722.914849470439</v>
+        <v>4585.036752965016</v>
       </c>
       <c r="R16">
-        <v>3722.914849470439</v>
+        <v>41265.33077668515</v>
       </c>
       <c r="S16">
-        <v>0.002981300433490918</v>
+        <v>0.002667192474281377</v>
       </c>
       <c r="T16">
-        <v>0.002981300433490918</v>
+        <v>0.002667192474281378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>380.102629662867</v>
+        <v>397.2012023333334</v>
       </c>
       <c r="N17">
-        <v>380.102629662867</v>
+        <v>1191.603607</v>
       </c>
       <c r="O17">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072776</v>
       </c>
       <c r="P17">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072777</v>
       </c>
       <c r="Q17">
-        <v>165814.6317374014</v>
+        <v>276009.8907168179</v>
       </c>
       <c r="R17">
-        <v>165814.6317374014</v>
+        <v>2484089.016451361</v>
       </c>
       <c r="S17">
-        <v>0.1327839215952439</v>
+        <v>0.1605595642981619</v>
       </c>
       <c r="T17">
-        <v>0.1327839215952439</v>
+        <v>0.1605595642981619</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.558582912366992</v>
+        <v>0.5851176666666666</v>
       </c>
       <c r="N18">
-        <v>0.558582912366992</v>
+        <v>1.755353</v>
       </c>
       <c r="O18">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635831</v>
       </c>
       <c r="P18">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635832</v>
       </c>
       <c r="Q18">
-        <v>243.6742413255299</v>
+        <v>406.5905699288793</v>
       </c>
       <c r="R18">
-        <v>243.6742413255299</v>
+        <v>3659.315129359914</v>
       </c>
       <c r="S18">
-        <v>0.0001951336924608169</v>
+        <v>0.000236520526804239</v>
       </c>
       <c r="T18">
-        <v>0.0001951336924608169</v>
+        <v>0.0002365205268042391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>473.741274117548</v>
+        <v>476.1463826666666</v>
       </c>
       <c r="N19">
-        <v>473.741274117548</v>
+        <v>1428.439148</v>
       </c>
       <c r="O19">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835045</v>
       </c>
       <c r="P19">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835046</v>
       </c>
       <c r="Q19">
-        <v>206663.2240252628</v>
+        <v>330867.858085549</v>
       </c>
       <c r="R19">
-        <v>206663.2240252628</v>
+        <v>2977810.722769942</v>
       </c>
       <c r="S19">
-        <v>0.1654953670135073</v>
+        <v>0.1924713603433374</v>
       </c>
       <c r="T19">
-        <v>0.1654953670135073</v>
+        <v>0.1924713603433374</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>131.180930603797</v>
+        <v>231.9582716666667</v>
       </c>
       <c r="N20">
-        <v>131.180930603797</v>
+        <v>695.874815</v>
       </c>
       <c r="O20">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249476</v>
       </c>
       <c r="P20">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249477</v>
       </c>
       <c r="Q20">
-        <v>57225.90690396159</v>
+        <v>161184.7518020612</v>
       </c>
       <c r="R20">
-        <v>57225.90690396159</v>
+        <v>1450662.766218551</v>
       </c>
       <c r="S20">
-        <v>0.04582635594901115</v>
+        <v>0.09376386278634688</v>
       </c>
       <c r="T20">
-        <v>0.04582635594901115</v>
+        <v>0.09376386278634691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.29730487875514</v>
+        <v>7.591415666666667</v>
       </c>
       <c r="N21">
-        <v>6.29730487875514</v>
+        <v>22.774247</v>
       </c>
       <c r="O21">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406503</v>
       </c>
       <c r="P21">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406504</v>
       </c>
       <c r="Q21">
-        <v>2747.11408951595</v>
+        <v>5275.174889284987</v>
       </c>
       <c r="R21">
-        <v>2747.11408951595</v>
+        <v>47476.57400356489</v>
       </c>
       <c r="S21">
-        <v>0.002199881747789069</v>
+        <v>0.003068657357243734</v>
       </c>
       <c r="T21">
-        <v>0.002199881747789069</v>
+        <v>0.003068657357243734</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>380.102629662867</v>
+        <v>397.2012023333334</v>
       </c>
       <c r="N22">
-        <v>380.102629662867</v>
+        <v>1191.603607</v>
       </c>
       <c r="O22">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072776</v>
       </c>
       <c r="P22">
-        <v>0.3832140510093274</v>
+        <v>0.3567197882072777</v>
       </c>
       <c r="Q22">
-        <v>12657.24509264066</v>
+        <v>17263.87057276632</v>
       </c>
       <c r="R22">
-        <v>12657.24509264066</v>
+        <v>155374.8351548968</v>
       </c>
       <c r="S22">
-        <v>0.01013588862685322</v>
+        <v>0.01004268191282727</v>
       </c>
       <c r="T22">
-        <v>0.01013588862685322</v>
+        <v>0.01004268191282727</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.558582912366992</v>
+        <v>0.5851176666666666</v>
       </c>
       <c r="N23">
-        <v>0.558582912366992</v>
+        <v>1.755353</v>
       </c>
       <c r="O23">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635831</v>
       </c>
       <c r="P23">
-        <v>0.0005631553269247344</v>
+        <v>0.0005254844368635832</v>
       </c>
       <c r="Q23">
-        <v>18.60055751958595</v>
+        <v>25.43143275456456</v>
       </c>
       <c r="R23">
-        <v>18.60055751958595</v>
+        <v>228.882894791081</v>
       </c>
       <c r="S23">
-        <v>1.48952776086733E-05</v>
+        <v>1.479388927674427E-05</v>
       </c>
       <c r="T23">
-        <v>1.48952776086733E-05</v>
+        <v>1.479388927674427E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>473.741274117548</v>
+        <v>476.1463826666666</v>
       </c>
       <c r="N24">
-        <v>473.741274117548</v>
+        <v>1428.439148</v>
       </c>
       <c r="O24">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835045</v>
       </c>
       <c r="P24">
-        <v>0.4776191970729773</v>
+        <v>0.4276191405835046</v>
       </c>
       <c r="Q24">
-        <v>15775.36946356847</v>
+        <v>20695.12749649187</v>
       </c>
       <c r="R24">
-        <v>15775.36946356847</v>
+        <v>186256.1474684268</v>
       </c>
       <c r="S24">
-        <v>0.0126328744335654</v>
+        <v>0.01203870138603399</v>
       </c>
       <c r="T24">
-        <v>0.0126328744335654</v>
+        <v>0.01203870138603399</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>131.180930603797</v>
+        <v>231.9582716666667</v>
       </c>
       <c r="N25">
-        <v>131.180930603797</v>
+        <v>695.874815</v>
       </c>
       <c r="O25">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249476</v>
       </c>
       <c r="P25">
-        <v>0.1322547436108031</v>
+        <v>0.2083178627249477</v>
       </c>
       <c r="Q25">
-        <v>4368.265464528964</v>
+        <v>10081.78614971892</v>
       </c>
       <c r="R25">
-        <v>4368.265464528964</v>
+        <v>90736.07534747027</v>
       </c>
       <c r="S25">
-        <v>0.003498095511063344</v>
+        <v>0.005864743424020639</v>
       </c>
       <c r="T25">
-        <v>0.003498095511063344</v>
+        <v>0.00586474342402064</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.29730487875514</v>
+        <v>7.591415666666667</v>
       </c>
       <c r="N26">
-        <v>6.29730487875514</v>
+        <v>22.774247</v>
       </c>
       <c r="O26">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406503</v>
       </c>
       <c r="P26">
-        <v>0.006348852979967453</v>
+        <v>0.006817724047406504</v>
       </c>
       <c r="Q26">
-        <v>209.6973950014013</v>
+        <v>329.9517140520133</v>
       </c>
       <c r="R26">
-        <v>209.6973950014013</v>
+        <v>2969.565426468119</v>
       </c>
       <c r="S26">
-        <v>0.0001679251231621697</v>
+        <v>0.0001919384240544354</v>
       </c>
       <c r="T26">
-        <v>0.0001679251231621697</v>
+        <v>0.0001919384240544354</v>
       </c>
     </row>
   </sheetData>
